--- a/biology/Botanique/Ilex_mucronata/Ilex_mucronata.xlsx
+++ b/biology/Botanique/Ilex_mucronata/Ilex_mucronata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le némopanthe mucroné ou Faux houx (Nemopanthus mucronatus ou Ilex mucronata) est un arbuste indigène au Québec des tourbières et des forêts ouvertes de conifères, aux feuilles légèrement dentées et terminées par une petite pointe, appelée mucron, d'où son nom.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique signifie « fleur à pédoncule filiforme »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique signifie « fleur à pédoncule filiforme ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le némopanthe mucroné comprend des rhizomes robustes. Les tiges sont fortement ramifiées, dressées et peuvent atteindre plus de 2 m de hauteur. Les feuilles sont alternes et munies d’un pétiole de couleur lilas. Elles sont de forme elliptique, élargies au sommet, à marge entière ou munie de quelques dents au sommet et terminées par un mucron. Elles sont plutôt minces et glabres. Les fleurs mâles et femelles sont situées sur des plants différents. Elles sont solitaires ou groupées en faisceau à l’aisselle des feuilles. Elles sont jaunâtres et très petites. Les fruits sont charnus, rouge violacé et contiennent 4 ou 5 noyaux[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le némopanthe mucroné comprend des rhizomes robustes. Les tiges sont fortement ramifiées, dressées et peuvent atteindre plus de 2 m de hauteur. Les feuilles sont alternes et munies d’un pétiole de couleur lilas. Elles sont de forme elliptique, élargies au sommet, à marge entière ou munie de quelques dents au sommet et terminées par un mucron. Elles sont plutôt minces et glabres. Les fleurs mâles et femelles sont situées sur des plants différents. Elles sont solitaires ou groupées en faisceau à l’aisselle des feuilles. Elles sont jaunâtres et très petites. Les fruits sont charnus, rouge violacé et contiennent 4 ou 5 noyaux.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce préfère les sols acides et humides, généralement tourbeux[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce préfère les sols acides et humides, généralement tourbeux.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fruits ne sont cependant pas comestibles, et peuvent causer des vomissements et de la diarrhée[3],[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits ne sont cependant pas comestibles, et peuvent causer des vomissements et de la diarrhée,.
 </t>
         </is>
       </c>
